--- a/Formato Protocolo.xlsx
+++ b/Formato Protocolo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IOBorges\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IOBorges\Desktop\indexconfig\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE408502-D685-4898-BAD2-3B2C7DAD2D62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0866C2A-81E1-49E1-AEAE-64C07DB3C38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{07BA083C-C053-4FD8-B578-6ACB939F1634}"/>
   </bookViews>
@@ -55,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,66 +372,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079842F8-2367-40B2-915A-858998D4E22B}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="F7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>10207170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10207171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10207172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10207173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10207175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10207176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10207178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10207179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10207180</v>
-      </c>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CProtocolo de entrega
-O.S. Corretiva</oddHeader>
-    <oddFooter>&amp;L      Data: _____/_____/________&amp;RAssinatura do(a) responsavel: _____________________________</oddFooter>
+O.S. Corretiva/Preventiva</oddHeader>
+    <oddFooter>&amp;RAssinatura do(a) responsavel: _____________________________&amp;L&amp;"Calibri"&amp;11&amp;K000000      Data: _____/_____/_________x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFClassificação: Interno</oddFooter>
   </headerFooter>
 </worksheet>
 </file>